--- a/ExcelFiles/Ideal.xlsx
+++ b/ExcelFiles/Ideal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henryro\OneDrive - Ballarat Grammar School\2019 Software\Sat\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D25B167-A940-4607-91C6-10D7D1263E0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FFCB35-8F5B-49D4-AD86-1A1084E1FFC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{FD00B04C-C19E-47E2-B809-7A759B83795E}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="B7:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,7 +504,7 @@
         <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
@@ -602,7 +602,7 @@
         <v>27</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">

--- a/ExcelFiles/Ideal.xlsx
+++ b/ExcelFiles/Ideal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henryro\OneDrive - Ballarat Grammar School\2019 Software\Sat\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FFCB35-8F5B-49D4-AD86-1A1084E1FFC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29651463-52E8-4DFC-882E-B7640CD0C7C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{FD00B04C-C19E-47E2-B809-7A759B83795E}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="B7:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -588,7 +588,7 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">

--- a/ExcelFiles/Ideal.xlsx
+++ b/ExcelFiles/Ideal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henryro\OneDrive - Ballarat Grammar School\2019 Software\Sat\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29651463-52E8-4DFC-882E-B7640CD0C7C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A884A8DA-2722-4974-A5C2-BE72B10BB63E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{FD00B04C-C19E-47E2-B809-7A759B83795E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{FD00B04C-C19E-47E2-B809-7A759B83795E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="B7:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
